--- a/DestinyParser/settings.xlsx
+++ b/DestinyParser/settings.xlsx
@@ -2,37 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Git\TeachWeb\DestinyParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="1275" yWindow="435" windowWidth="27795" windowHeight="28275"/>
   </bookViews>
   <sheets>
     <sheet name="PvP" sheetId="1" r:id="rId1"/>
-    <sheet name="HeroicNightfall" sheetId="9" r:id="rId2"/>
+    <sheet name="TrialsOfTheNine" sheetId="5" r:id="rId2"/>
     <sheet name="PvE" sheetId="2" r:id="rId3"/>
     <sheet name="Nightfall" sheetId="3" r:id="rId4"/>
-    <sheet name="Raid" sheetId="4" r:id="rId5"/>
-    <sheet name="TrialsOfTheNine" sheetId="5" r:id="rId6"/>
-    <sheet name="Patrol" sheetId="6" r:id="rId7"/>
-    <sheet name="Story" sheetId="7" r:id="rId8"/>
-    <sheet name="Strike" sheetId="8" r:id="rId9"/>
+    <sheet name="HeroicNightfall" sheetId="9" r:id="rId5"/>
+    <sheet name="Raid" sheetId="4" r:id="rId6"/>
+    <sheet name="Strike" sheetId="8" r:id="rId7"/>
+    <sheet name="Patrol" sheetId="6" r:id="rId8"/>
+    <sheet name="Story" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="85">
   <si>
     <t>longestKillSpree</t>
   </si>
@@ -223,9 +226,6 @@
     <t>activitiesCleared</t>
   </si>
   <si>
-    <t>Кол-во игр</t>
-  </si>
-  <si>
     <t>Выиграно</t>
   </si>
   <si>
@@ -260,6 +260,36 @@
   </si>
   <si>
     <t>Самая длинная серия убийств</t>
+  </si>
+  <si>
+    <t>Суициды</t>
+  </si>
+  <si>
+    <t>Время без смертей</t>
+  </si>
+  <si>
+    <t>Ассисты</t>
+  </si>
+  <si>
+    <t>Количество сыгранных игр</t>
+  </si>
+  <si>
+    <t>Всего сыграно матчей</t>
+  </si>
+  <si>
+    <t>Проведено времени в ПВП</t>
+  </si>
+  <si>
+    <t>Хедшоты</t>
+  </si>
+  <si>
+    <t>Всего сыграно времени</t>
+  </si>
+  <si>
+    <t>Смерти</t>
+  </si>
+  <si>
+    <t>Всего убийств</t>
   </si>
 </sst>
 </file>
@@ -580,11 +610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
@@ -603,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,7 +784,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +802,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +870,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,13 +883,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -871,7 +904,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +927,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,16 +963,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,25 +987,34 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,249 +1031,294 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1240,12 +1327,13 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,6 +1348,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1270,6 +1361,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1295,6 +1389,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1320,6 +1417,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1331,207 +1431,228 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1547,10 +1668,10 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:XFD1048576"/>
+      <selection activeCell="E10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -1568,6 +1689,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1578,6 +1702,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1603,6 +1730,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1628,6 +1758,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1639,207 +1772,228 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1855,10 +2009,10 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -1876,6 +2030,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1886,6 +2043,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1911,6 +2071,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1936,6 +2099,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1947,207 +2113,228 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2159,365 +2346,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -2535,6 +2370,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2545,6 +2383,9 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2570,6 +2411,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2595,6 +2439,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2606,221 +2453,246 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -3119,15 +2991,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -3253,6 +3125,309 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>

--- a/DestinyParser/settings.xlsx
+++ b/DestinyParser/settings.xlsx
@@ -12,15 +12,16 @@
     <workbookView xWindow="1275" yWindow="435" windowWidth="27795" windowHeight="28275"/>
   </bookViews>
   <sheets>
-    <sheet name="PvP" sheetId="1" r:id="rId1"/>
-    <sheet name="TrialsOfTheNine" sheetId="5" r:id="rId2"/>
-    <sheet name="PvE" sheetId="2" r:id="rId3"/>
-    <sheet name="Nightfall" sheetId="3" r:id="rId4"/>
-    <sheet name="HeroicNightfall" sheetId="9" r:id="rId5"/>
-    <sheet name="Raid" sheetId="4" r:id="rId6"/>
-    <sheet name="Strike" sheetId="8" r:id="rId7"/>
-    <sheet name="Patrol" sheetId="6" r:id="rId8"/>
-    <sheet name="Story" sheetId="7" r:id="rId9"/>
+    <sheet name="Params" sheetId="10" r:id="rId1"/>
+    <sheet name="PvP" sheetId="1" r:id="rId2"/>
+    <sheet name="TrialsOfTheNine" sheetId="5" r:id="rId3"/>
+    <sheet name="PvE" sheetId="2" r:id="rId4"/>
+    <sheet name="Nightfall" sheetId="3" r:id="rId5"/>
+    <sheet name="HeroicNightfall" sheetId="9" r:id="rId6"/>
+    <sheet name="Raid" sheetId="4" r:id="rId7"/>
+    <sheet name="Strike" sheetId="8" r:id="rId8"/>
+    <sheet name="Patrol" sheetId="6" r:id="rId9"/>
+    <sheet name="Story" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,8 +35,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ilin</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Ilin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Дата в формате dd.mm.yyyy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Ilin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Дата в формате dd.mm.yyyy</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="91">
   <si>
     <t>longestKillSpree</t>
   </si>
@@ -290,13 +353,31 @@
   </si>
   <si>
     <t>Всего убийств</t>
+  </si>
+  <si>
+    <t>Дата начала выгрузки</t>
+  </si>
+  <si>
+    <t>Дата окончания выгрузки</t>
+  </si>
+  <si>
+    <t>Тип выгрузки</t>
+  </si>
+  <si>
+    <t>Название клана</t>
+  </si>
+  <si>
+    <t>Russian Warriors</t>
+  </si>
+  <si>
+    <t>Статистика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +385,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -326,8 +422,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -607,17 +704,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Выбран не верный тип игры" promptTitle="Тип игры" sqref="C2:C3">
+      <formula1>"Статистика,Игры"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Дата начала должна быть либо пустой или меньше либо равна дате окончания в формате дд.мм.гггг (пример: 03.10.2017)" sqref="A2">
+      <formula1>42983</formula1>
+      <formula2>B2</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Дата окончания должна быть либо пустой  или больше либо равна дате начала в формате дд.мм.гггг (пример: 03.10.2017)" sqref="B2">
+      <formula1>A2</formula1>
+      <formula2>44196</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,34 +793,25 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,288 +828,249 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1133,9 +1246,6 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1177,9 +1287,6 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1205,9 +1312,6 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1234,7 +1338,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,6 +1357,9 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,6 +1430,367 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -1663,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -2004,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -2344,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -2684,7 +3152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -2991,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
@@ -3292,311 +3760,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DestinyParser/settings.xlsx
+++ b/DestinyParser/settings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="435" windowWidth="27795" windowHeight="28275"/>
+    <workbookView xWindow="1275" yWindow="435" windowWidth="27795" windowHeight="28275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Patrol" sheetId="6" r:id="rId9"/>
     <sheet name="Story" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="100">
   <si>
     <t>longestKillSpree</t>
   </si>
@@ -371,6 +371,33 @@
   </si>
   <si>
     <t>Статистика</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>Acumulate</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
   </si>
 </sst>
 </file>
@@ -707,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -735,10 +762,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43006</v>
+        <v>43010</v>
       </c>
       <c r="B2" s="1">
-        <v>43013</v>
+        <v>43016</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -1076,354 +1103,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1431,360 +1555,469 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1792,340 +2025,422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2133,340 +2448,422 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2474,680 +2871,844 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3157,13 +3718,15 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3455,6 +4018,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3463,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>

--- a/DestinyParser/settings.xlsx
+++ b/DestinyParser/settings.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="435" windowWidth="27795" windowHeight="28275" activeTab="1"/>
+    <workbookView xWindow="1275" yWindow="435" windowWidth="27795" windowHeight="28275"/>
   </bookViews>
   <sheets>
     <sheet name="Params" sheetId="10" r:id="rId1"/>
-    <sheet name="PvP" sheetId="1" r:id="rId2"/>
-    <sheet name="TrialsOfTheNine" sheetId="5" r:id="rId3"/>
-    <sheet name="PvE" sheetId="2" r:id="rId4"/>
-    <sheet name="Nightfall" sheetId="3" r:id="rId5"/>
-    <sheet name="HeroicNightfall" sheetId="9" r:id="rId6"/>
-    <sheet name="Raid" sheetId="4" r:id="rId7"/>
-    <sheet name="Strike" sheetId="8" r:id="rId8"/>
-    <sheet name="Patrol" sheetId="6" r:id="rId9"/>
-    <sheet name="Story" sheetId="7" r:id="rId10"/>
+    <sheet name="IronBanner" sheetId="11" r:id="rId2"/>
+    <sheet name="PvP" sheetId="1" r:id="rId3"/>
+    <sheet name="TrialsOfTheNine" sheetId="5" r:id="rId4"/>
+    <sheet name="PvE" sheetId="2" r:id="rId5"/>
+    <sheet name="Nightfall" sheetId="3" r:id="rId6"/>
+    <sheet name="HeroicNightfall" sheetId="9" r:id="rId7"/>
+    <sheet name="Raid" sheetId="4" r:id="rId8"/>
+    <sheet name="Strike" sheetId="8" r:id="rId9"/>
+    <sheet name="Patrol" sheetId="6" r:id="rId10"/>
+    <sheet name="Story" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="100">
   <si>
     <t>longestKillSpree</t>
   </si>
@@ -370,9 +371,6 @@
     <t>Russian Warriors</t>
   </si>
   <si>
-    <t>Статистика</t>
-  </si>
-  <si>
     <t>Datatype</t>
   </si>
   <si>
@@ -398,6 +396,9 @@
   </si>
   <si>
     <t>DURATION</t>
+  </si>
+  <si>
+    <t>Игры</t>
   </si>
 </sst>
 </file>
@@ -734,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -762,13 +763,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43010</v>
+        <v>43024</v>
       </c>
       <c r="B2" s="1">
-        <v>43016</v>
+        <v>43031</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
@@ -796,6 +797,309 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1105,8 +1409,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D58">
+      <formula1>"SUM,AVG,MAX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
+      <formula1>"LONG,DOUBLE,DURATION,STRING"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="A1:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1878,10 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,10 +1892,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1906,10 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1172,10 +1925,10 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,10 +1954,10 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1225,10 +1978,10 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,10 +2017,10 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,10 +2036,10 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1332,10 +2085,10 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,10 +2109,10 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,10 +2183,10 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,7 +2202,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,10 +2213,10 @@
         <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,10 +2232,10 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,10 +2261,10 @@
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1553,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
@@ -1577,10 +2330,10 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,10 +2344,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,10 +2358,10 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,10 +2377,10 @@
         <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,10 +2406,10 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,10 +2430,10 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1716,10 +2469,10 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1735,10 +2488,10 @@
         <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,10 +2532,10 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,10 +2546,10 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +2570,10 @@
         <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,10 +2594,10 @@
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1875,10 +2628,10 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1909,10 +2662,10 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,7 +2681,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,10 +2702,10 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,10 +2731,10 @@
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,11 +2776,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -2047,10 +2800,10 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,10 +2814,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2080,10 +2833,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,10 +2867,10 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2148,10 +2901,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,10 +2980,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,10 +2994,10 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,10 +3018,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,10 +3042,10 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,10 +3066,10 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,10 +3125,10 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +3154,10 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,7 +3199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
@@ -2470,10 +3223,10 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,10 +3237,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,10 +3256,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2537,10 +3290,10 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,10 +3324,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2650,10 +3403,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,10 +3417,10 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,10 +3441,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,10 +3465,10 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,10 +3489,10 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,10 +3548,10 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,10 +3577,10 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2869,7 +3622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
@@ -2893,10 +3646,10 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,10 +3660,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,10 +3679,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2960,10 +3713,10 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,10 +3747,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3073,10 +3826,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3087,10 +3840,10 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,10 +3864,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,10 +3888,10 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3159,10 +3912,10 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,10 +3971,10 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,10 +4000,10 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,7 +4044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
@@ -3315,10 +4068,10 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,10 +4082,10 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,10 +4101,10 @@
         <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,10 +4135,10 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3416,10 +4169,10 @@
         <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,10 +4248,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,10 +4262,10 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3533,10 +4286,10 @@
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3557,10 +4310,10 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3581,10 +4334,10 @@
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,10 +4393,10 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,10 +4422,10 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,7 +4466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
@@ -4028,307 +4781,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>